--- a/Result_Question_01.xlsx
+++ b/Result_Question_01.xlsx
@@ -34,28 +34,43 @@
     <t>Japan</t>
   </si>
   <si>
+    <t>Mexiko</t>
+  </si>
+  <si>
+    <t>Brasilien</t>
+  </si>
+  <si>
     <t>Kanada</t>
   </si>
   <si>
     <t>Griechenland</t>
   </si>
   <si>
+    <t>Großbritannien</t>
+  </si>
+  <si>
     <t>Schweiz</t>
   </si>
   <si>
-    <t>Mexiko</t>
-  </si>
-  <si>
-    <t>Großbritannien</t>
-  </si>
-  <si>
-    <t>Brasilien</t>
+    <t>Oesterreich</t>
+  </si>
+  <si>
+    <t>Russische Foederation</t>
+  </si>
+  <si>
+    <t>Finnland</t>
   </si>
   <si>
     <t>Australien</t>
   </si>
   <si>
-    <t>Finnland</t>
+    <t>Norwegen</t>
+  </si>
+  <si>
+    <t>Schweden</t>
+  </si>
+  <si>
+    <t>Spanien</t>
   </si>
   <si>
     <t>China</t>
@@ -64,52 +79,37 @@
     <t>Korea, Republik</t>
   </si>
   <si>
-    <t>Schweden</t>
-  </si>
-  <si>
-    <t>Russische Foederation</t>
-  </si>
-  <si>
-    <t>Norwegen</t>
-  </si>
-  <si>
-    <t>Oesterreich</t>
-  </si>
-  <si>
-    <t>Spanien</t>
+    <t>Bosnien und Herzegowina</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Russland</t>
+  </si>
+  <si>
+    <t>Suedafrika</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
   <si>
     <t>Niederlande</t>
   </si>
   <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Belgien</t>
+  </si>
+  <si>
+    <t>Argentinien</t>
+  </si>
+  <si>
     <t>Japan und Suedkorea</t>
-  </si>
-  <si>
-    <t>Argentinien</t>
-  </si>
-  <si>
-    <t>Bosnien und Herzegowina</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Suedafrika</t>
-  </si>
-  <si>
-    <t>Belgien</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Russland</t>
   </si>
 </sst>
 </file>

--- a/Result_Question_01.xlsx
+++ b/Result_Question_01.xlsx
@@ -34,82 +34,82 @@
     <t>Japan</t>
   </si>
   <si>
+    <t>Großbritannien</t>
+  </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>Griechenland</t>
+  </si>
+  <si>
     <t>Mexiko</t>
   </si>
   <si>
     <t>Brasilien</t>
   </si>
   <si>
-    <t>Kanada</t>
-  </si>
-  <si>
-    <t>Griechenland</t>
-  </si>
-  <si>
-    <t>Großbritannien</t>
-  </si>
-  <si>
     <t>Schweiz</t>
   </si>
   <si>
     <t>Oesterreich</t>
   </si>
   <si>
+    <t>Korea, Republik</t>
+  </si>
+  <si>
+    <t>Spanien</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Norwegen</t>
+  </si>
+  <si>
+    <t>Finnland</t>
+  </si>
+  <si>
+    <t>Australien</t>
+  </si>
+  <si>
+    <t>Schweden</t>
+  </si>
+  <si>
     <t>Russische Foederation</t>
   </si>
   <si>
-    <t>Finnland</t>
-  </si>
-  <si>
-    <t>Australien</t>
-  </si>
-  <si>
-    <t>Norwegen</t>
-  </si>
-  <si>
-    <t>Schweden</t>
-  </si>
-  <si>
-    <t>Spanien</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Korea, Republik</t>
+    <t>Japan und Suedkorea</t>
   </si>
   <si>
     <t>Bosnien und Herzegowina</t>
   </si>
   <si>
+    <t>Argentinien</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Russland</t>
+  </si>
+  <si>
+    <t>Niederlande</t>
+  </si>
+  <si>
     <t>England</t>
   </si>
   <si>
-    <t>Russland</t>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Belgien</t>
   </si>
   <si>
     <t>Suedafrika</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Niederlande</t>
-  </si>
-  <si>
     <t>Uruguay</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Belgien</t>
-  </si>
-  <si>
-    <t>Argentinien</t>
-  </si>
-  <si>
-    <t>Japan und Suedkorea</t>
   </si>
 </sst>
 </file>
